--- a/MHSP/scen_tree/tree_scen1.xlsx
+++ b/MHSP/scen_tree/tree_scen1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\scen_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C24C27-A0B9-41AA-970E-1AC92B9FCE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B6746-E66D-451B-9E77-6DE319328288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>100</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
